--- a/mass_upload_copy.xlsx
+++ b/mass_upload_copy.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Notes:</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Courtney</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>Sis</t>
@@ -166,7 +163,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -252,11 +249,11 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>8.13509E9</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
@@ -273,13 +270,13 @@
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>8.133257201E9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
@@ -296,13 +293,13 @@
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1">
         <v>8.133687985E9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -314,12 +311,12 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1">
         <v>8.138479761E9</v>
@@ -340,7 +337,7 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>8.138503521E9</v>
@@ -364,7 +361,7 @@
     <row r="15">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1">
         <v>8.138477365E9</v>
@@ -373,7 +370,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
